--- a/biology/Botanique/Guiera/Guiera.xlsx
+++ b/biology/Botanique/Guiera/Guiera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guiera est un genre de plantes à fleurs de la famille des Combretaceae. 
 Guiera senegalensis est la seule espèce du genre. 
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Nger est un arbuste pouvant atteindre 3 mètres, souvent un buisson de moins de 1,5 mètre. Très commun au Sahel, il envahit les jachères[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Nger est un arbuste pouvant atteindre 3 mètres, souvent un buisson de moins de 1,5 mètre. Très commun au Sahel, il envahit les jachères.
 Les feuilles sont vendues dans les marchés et utilisées sous forme de décoction.
 </t>
         </is>
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médicinales
-Guiera senegalensis est une des plantes médicinales les plus prisées de l’ouest africain, et est utilisée pour traiter une grande variété de maladies. Ses utilisations sont comparables à celles de Combretum micranthum, généralement appelé « kinkeliba », et les plantes sont souvent utilisées ensemble, en particulier pour traiter les rhumes, la fièvre et les problèmes respiratoires courants. On utilise le plus fréquemment les feuilles amères.
-Redistribution hydraulique
-Lorsqu'il est cultivé comme plante d'accompagnement, l'eau extraite pendant la nuit par Guiera senegalensis est excrétée par ses racines et disponible pour le millet ou le manguier, augmentant considérablement son rendement[3].
+          <t>Médicinales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guiera senegalensis est une des plantes médicinales les plus prisées de l’ouest africain, et est utilisée pour traiter une grande variété de maladies. Ses utilisations sont comparables à celles de Combretum micranthum, généralement appelé « kinkeliba », et les plantes sont souvent utilisées ensemble, en particulier pour traiter les rhumes, la fièvre et les problèmes respiratoires courants. On utilise le plus fréquemment les feuilles amères.
 </t>
         </is>
       </c>
@@ -578,14 +595,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Redistribution hydraulique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'il est cultivé comme plante d'accompagnement, l'eau extraite pendant la nuit par Guiera senegalensis est excrétée par ses racines et disponible pour le millet ou le manguier, augmentant considérablement son rendement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Guiera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Guiera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 février 2019)[4], NCBI  (11 février 2019)[5] et  The Plant List            (11 février 2019)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 février 2019), NCBI  (11 février 2019) et  The Plant List            (11 février 2019) :
 Guiera senegalensis J.F.Gmel.
-Selon Tropicos                                           (11 février 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (11 février 2019) (Attention liste brute contenant possiblement des synonymes) :
 Guiera glandulosa Sm. = Guiera senegalensis
 Guiera nudiflora Rchb. ex DC. = Combretum aculeatum
 Guiera senegalensis J.F. Gmel.</t>
